--- a/medicine/Médecine vétérinaire/Complexe_léopard/Complexe_léopard.xlsx
+++ b/medicine/Médecine vétérinaire/Complexe_léopard/Complexe_léopard.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Complexe_l%C3%A9opard</t>
+          <t>Complexe_léopard</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le complexe léopard est la mutation génétique à l'origine des robes tachetées (ou à tort robes appaloosa), un groupe de robes du cheval souvent caractérisées par de petites taches rondes de couleur claire ou foncée. 
 Le gène responsable, nommé « Léopard », est noté « LP ». La mutation qui en est à l'origine semble très ancienne. En plus de la couleur de robe, le gène LP est responsable de sabots striés, d'une sclérotique de l’œil apparente, et de la peau marbrée. Les robes du complexe léopard se déclinent en léopard, capé, flocon de neige, marmoré et givré. 
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Complexe_l%C3%A9opard</t>
+          <t>Complexe_léopard</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,11 +525,13 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il existe une confusion terminologique pour désigner le complexe léopard[1]. Selon les Haras nationaux français, le nom officiel est « panachure de type tacheté »[2] ; Jean-François Ballereau parlant plus simplement de « robes tachetées »[3]. 
-Le gène responsable porte le nom de « léopard »[4], à la suite de sa définition comme leopard complex, LP, proposée par D. P. Sponenberg en 1982[1].
-De nombreuses personnes utilisent cependant le nom de « robe appaloosa » (Appaloosa désignant une race chevaline américaine qui porte souvent cette robe), malgré son inadéquation avec les classifications officielles, et la confusion qu'il apporte[5],[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il existe une confusion terminologique pour désigner le complexe léopard. Selon les Haras nationaux français, le nom officiel est « panachure de type tacheté » ; Jean-François Ballereau parlant plus simplement de « robes tachetées ». 
+Le gène responsable porte le nom de « léopard », à la suite de sa définition comme leopard complex, LP, proposée par D. P. Sponenberg en 1982.
+De nombreuses personnes utilisent cependant le nom de « robe appaloosa » (Appaloosa désignant une race chevaline américaine qui porte souvent cette robe), malgré son inadéquation avec les classifications officielles, et la confusion qu'il apporte,.
 </t>
         </is>
       </c>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Complexe_l%C3%A9opard</t>
+          <t>Complexe_léopard</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,9 +560,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Des représentations de chevaux tachetés sur les peintures rupestres des grottes de Lascaux et de Pech Merle reproduites il y a 20 ou 25 000 ans. Les deux « chevaux ponctués » de Pech Merle ont ainsi des robes de type léopard[7]. En Chine, vers 3500 av. J.-C., des statuettes représentatives de chevaux avec une robe de type blanket ont été retrouvées. Le prophète Zarathoustra, probablement en Mésopotamie turkmène « possédait des chevaux à la robe tachetée » vers 1000 av. J.-C. Xénophon, au IVe siècle av. J.-C., vante les qualités des chevaux d’Épire ou de Thrace « toujours blancs ou tachetés » dans son Traité de l'équitation[8].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Des représentations de chevaux tachetés sur les peintures rupestres des grottes de Lascaux et de Pech Merle reproduites il y a 20 ou 25 000 ans. Les deux « chevaux ponctués » de Pech Merle ont ainsi des robes de type léopard. En Chine, vers 3500 av. J.-C., des statuettes représentatives de chevaux avec une robe de type blanket ont été retrouvées. Le prophète Zarathoustra, probablement en Mésopotamie turkmène « possédait des chevaux à la robe tachetée » vers 1000 av. J.-C. Xénophon, au IVe siècle av. J.-C., vante les qualités des chevaux d’Épire ou de Thrace « toujours blancs ou tachetés » dans son Traité de l'équitation.
 </t>
         </is>
       </c>
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Complexe_l%C3%A9opard</t>
+          <t>Complexe_léopard</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,16 +595,161 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Léopard
-La robe apparaît entièrement recouverte de petites taches de couleur sur un fond blanc, comme le pelage de certains félins ou du chien dalmatien. Quand les taches colorées sont de très petite taille, cette robe est dite few spots en anglais.
-Capé et capé taché
-Dit blanket pour les anglo-saxons. L'avant-main est souvent unie, l'arrière-main est blanche. De petites ou grosses taches de couleur peuvent y apparaître (spotted blanket). Les bords sont nets.
-Flocon de neige
-De petites taches blanches semblables à des flocons sont réparties sur le corps.
-Marmoré
-Dite également varnish roan, cette robe est souvent confondue avec le pie et le rouan. Elle se présente comme parsemée de poils blancs, sauf sur les zones osseuses comme la tête, le garrot, les épaules et les hanches.
-Givré
-Dit également « frost ». La robe présente des taches blanches sur les reins ou les hanches avec des poils blancs, plus ou moins nombreux, sur la ligne du dos.
+          <t>Léopard</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La robe apparaît entièrement recouverte de petites taches de couleur sur un fond blanc, comme le pelage de certains félins ou du chien dalmatien. Quand les taches colorées sont de très petite taille, cette robe est dite few spots en anglais.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Complexe_léopard</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine vétérinaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Complexe_l%C3%A9opard</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Les différentes robes tachetées</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Capé et capé taché</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dit blanket pour les anglo-saxons. L'avant-main est souvent unie, l'arrière-main est blanche. De petites ou grosses taches de couleur peuvent y apparaître (spotted blanket). Les bords sont nets.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Complexe_léopard</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine vétérinaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Complexe_l%C3%A9opard</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Les différentes robes tachetées</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Flocon de neige</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">De petites taches blanches semblables à des flocons sont réparties sur le corps.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Complexe_léopard</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine vétérinaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Complexe_l%C3%A9opard</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Les différentes robes tachetées</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Marmoré</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dite également varnish roan, cette robe est souvent confondue avec le pie et le rouan. Elle se présente comme parsemée de poils blancs, sauf sur les zones osseuses comme la tête, le garrot, les épaules et les hanches.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Complexe_léopard</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine vétérinaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Complexe_l%C3%A9opard</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Les différentes robes tachetées</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Givré</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dit également « frost ». La robe présente des taches blanches sur les reins ou les hanches avec des poils blancs, plus ou moins nombreux, sur la ligne du dos.
 			Léopard
 			Few spots
 			Capé
@@ -598,31 +759,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Complexe_l%C3%A9opard</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Médecine vétérinaire/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Complexe_l%C3%A9opard</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Complexe_léopard</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine vétérinaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Complexe_l%C3%A9opard</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Races de chevaux tachetés</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Appaloosa a très souvent une robe tachetée, et le nom de cette race est fréquemment associé à la robe, bien que la robe tachetée ne soit aucunement limitée à cette race. Le Knabstrup, cheval danois issu d'animaux espagnols, et le Noriker d'Autriche, en sont également des porteurs fréquents.
 			Noriker
@@ -633,33 +796,35 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Complexe_l%C3%A9opard</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Médecine vétérinaire/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Complexe_l%C3%A9opard</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Complexe_léopard</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine vétérinaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Complexe_l%C3%A9opard</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Problèmes de santé liés</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cécité nocturne congénitale stationnaire chez les homozygotes[9].
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cécité nocturne congénitale stationnaire chez les homozygotes.
 </t>
         </is>
       </c>
